--- a/Output/Chock_Nacional_2016_68.xlsx
+++ b/Output/Chock_Nacional_2016_68.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoo\Google Drive\IPEA\CGE\ProgramsPy\GeraAnaliseNacional\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A883A0-F95A-4E94-931E-399A278F4E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="ChoqueDemanda" sheetId="1" r:id="rId1"/>
     <sheet name="Oferta" sheetId="2" r:id="rId2"/>
     <sheet name="Impact_VBP" sheetId="3" r:id="rId3"/>
-    <sheet name="Impactos" sheetId="4" r:id="rId4"/>
+    <sheet name="Impact_VA_Sectors" sheetId="4" r:id="rId4"/>
+    <sheet name="Impact_VA_Agg_Sectors" sheetId="5" r:id="rId5"/>
+    <sheet name="Impactos" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="109">
   <si>
     <t>Exportações</t>
   </si>
@@ -330,10 +326,76 @@
     <t>VBP_Impact</t>
   </si>
   <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>VA_Choque</t>
+  </si>
+  <si>
+    <t>Variação %</t>
+  </si>
+  <si>
+    <t>Agricultura, inclusive apoio à agricultura e a pós-colheita</t>
+  </si>
+  <si>
+    <t>Pecuária, inclusive apoio à Pecuária</t>
+  </si>
+  <si>
+    <t>Produção florestal, pesca e aquicultura</t>
+  </si>
+  <si>
+    <t>Indústrias extrativas</t>
+  </si>
+  <si>
+    <t>Indústrias de transformação</t>
+  </si>
+  <si>
+    <t>Eletricidade e gás, água, esgoto, atividades de gestão de resíduos e descontaminação</t>
+  </si>
+  <si>
+    <t>Construção</t>
+  </si>
+  <si>
+    <t>Comércio e reparação de veículos automotores e motocicletas</t>
+  </si>
+  <si>
+    <t>Transporte, armazenagem e correio</t>
+  </si>
+  <si>
+    <t>Alojamento e alimentação</t>
+  </si>
+  <si>
+    <t>Informação e comunicação</t>
+  </si>
+  <si>
+    <t>Atividades financeiras, de seguros e serviços relacionados</t>
+  </si>
+  <si>
+    <t>Atividades imobiliárias</t>
+  </si>
+  <si>
+    <t>Atividades profissionais, científicas e técnicas, administrativas e serviços complementares</t>
+  </si>
+  <si>
+    <t>Administração, defesa, educação e saúde públicas e seguridade social</t>
+  </si>
+  <si>
+    <t>Educação e saúde privadas</t>
+  </si>
+  <si>
+    <t>Artes, cultura, esporte e recreação e outras atividades de serviços</t>
+  </si>
+  <si>
+    <t>Serviços domésticos</t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
     <t>VBP</t>
   </si>
   <si>
-    <t>PIB</t>
+    <t>Impostos</t>
   </si>
   <si>
     <t>EOB</t>
@@ -352,20 +414,13 @@
   </si>
   <si>
     <t>Impactos</t>
-  </si>
-  <si>
-    <t>Variação %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,13 +430,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -421,38 +469,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -494,7 +529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,27 +561,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,24 +595,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -771,14 +770,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.93599999999999994</v>
+        <v>0.9359999999999999</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -867,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -881,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.028</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -890,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -904,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.97499999999999998</v>
+        <v>1.014</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -913,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>1.028</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -936,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -950,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>1.028</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -959,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -982,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -996,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.91</v>
+        <v>1.0297</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1005,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.95399999999999996</v>
+        <v>1.0297</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1028,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.95399999999999996</v>
+        <v>0.965</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1051,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1074,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.63250000000000006</v>
+        <v>0.7375</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1097,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0.63250000000000006</v>
+        <v>0.7375</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1120,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0.63250000000000006</v>
+        <v>0.7375</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1143,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.96250000000000002</v>
+        <v>0.945</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1166,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.96250000000000002</v>
+        <v>0.945</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1189,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1203,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0.92149999999999999</v>
+        <v>0.9215</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1212,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0.82500000000000007</v>
+        <v>0.7867499999999999</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1235,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1249,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0.82500000000000007</v>
+        <v>0.7867499999999999</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1258,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.97499999999999998</v>
+        <v>0.9408</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1281,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0.97499999999999998</v>
+        <v>0.9408</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1304,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0.97499999999999998</v>
+        <v>0.9408</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1327,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1.1459999999999999</v>
+        <v>0.9089</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1350,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1364,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0.82250000000000001</v>
+        <v>0.85995</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1373,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1387,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0.84399999999999997</v>
+        <v>0.89225</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1396,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1410,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0.84399999999999997</v>
+        <v>0.89225</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1419,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -1433,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0.84399999999999997</v>
+        <v>0.89225</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1442,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0.84399999999999997</v>
+        <v>0.89225</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1465,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0.86749999999999994</v>
+        <v>0.851</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1488,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1502,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0.86749999999999994</v>
+        <v>0.851</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1511,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0.90400000000000003</v>
+        <v>0.87495</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1534,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1548,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0.69799999999999995</v>
+        <v>0.6489499999999999</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1557,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.69799999999999995</v>
+        <v>0.6489499999999999</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1580,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.69799999999999995</v>
+        <v>0.6489499999999999</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1603,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0.62050000000000005</v>
+        <v>0.8411500000000001</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1626,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0.91</v>
+        <v>0.76845</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1672,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -1686,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0.76</v>
+        <v>0.84365</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1695,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.91095</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1718,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -1732,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0.8175</v>
+        <v>0.8679</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1741,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0.96550000000000002</v>
+        <v>0.8802</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1764,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -1778,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0.67500000000000004</v>
+        <v>0.631</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1787,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0.8251499999999999</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1810,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -1824,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0.53400000000000003</v>
+        <v>0.6228</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1833,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -1847,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1.0615000000000001</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1856,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0.54099999999999993</v>
+        <v>0.5549999999999999</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1879,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -1893,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0.623</v>
+        <v>0.73</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1902,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -1916,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0.7965</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1925,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>0.9</v>
+        <v>0.7965</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1948,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>0.9345</v>
+        <v>0.927</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1971,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>1.085</v>
+        <v>0.92035</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1994,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -2008,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>1.01425</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2017,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -2031,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2040,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -2054,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2063,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -2077,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2086,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2109,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2132,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2155,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2178,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -2192,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0.7625000000000001</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2201,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -2215,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0.99975</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2224,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -2238,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0.8394</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2247,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>1.1000000000000001</v>
+        <v>1.03685</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2270,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1.1000000000000001</v>
+        <v>1.03685</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2293,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0.50500000000000012</v>
+        <v>0.625</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2316,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -2368,307 +2367,307 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9359999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.0297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.0297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.945</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7867499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7867499999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.85995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.89225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.89225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.89225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.89225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.851</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.87495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.6489499999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.6489499999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.6489499999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.8411500000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -2676,135 +2675,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.76845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.84365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.91095</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.8679</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.8802</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.8251499999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.6228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9772999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.5549999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7965</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7965</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.927</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.92035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.01425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -2812,116 +2811,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.91305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.91305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.91305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.91305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.91305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.91305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7625000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.99975</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.8394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.03685</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.03685</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -2930,14 +2929,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
@@ -2951,1146 +2950,1146 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>348557.23018933309</v>
+        <v>353581.2851859805</v>
       </c>
       <c r="C2">
-        <v>354665.99999999988</v>
+        <v>354665.9999999999</v>
       </c>
       <c r="D2">
-        <v>-6108.7698106667376</v>
+        <v>-1084.714814019389</v>
       </c>
       <c r="E2">
-        <v>-1.7224007406029161E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.003058412179400873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>151855.46245612999</v>
+        <v>152756.4951394424</v>
       </c>
       <c r="C3">
         <v>150854</v>
       </c>
       <c r="D3">
-        <v>1001.462456129986</v>
+        <v>1902.495139442472</v>
       </c>
       <c r="E3">
-        <v>6.6386204948492332E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.01261149945936118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>31633.47029536614</v>
+        <v>31768.11537453419</v>
       </c>
       <c r="C4">
         <v>33300</v>
       </c>
       <c r="D4">
-        <v>-1666.529704633856</v>
+        <v>-1531.884625465806</v>
       </c>
       <c r="E4">
-        <v>-5.0045937076091777E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.04600254130527945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>17758.022004355509</v>
+        <v>17858.16313186421</v>
       </c>
       <c r="C5">
-        <v>18284.000000000011</v>
+        <v>18284.00000000001</v>
       </c>
       <c r="D5">
-        <v>-525.97799564450179</v>
+        <v>-425.8368681357933</v>
       </c>
       <c r="E5">
-        <v>-2.8767118554173129E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.02329013717653649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>117251.9908350144</v>
+        <v>115559.7846818556</v>
       </c>
       <c r="C6">
         <v>125532</v>
       </c>
       <c r="D6">
-        <v>-8280.009164985604</v>
+        <v>-9972.215318144343</v>
       </c>
       <c r="E6">
-        <v>-6.595935032490205E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.07943962749055494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>48504.30039139789</v>
+        <v>48516.57500894517</v>
       </c>
       <c r="C7">
-        <v>48913.999999999993</v>
+        <v>48913.99999999999</v>
       </c>
       <c r="D7">
-        <v>-409.6996086020954</v>
+        <v>-397.4249910548169</v>
       </c>
       <c r="E7">
-        <v>-8.3759170912641682E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.008124974262068468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>14739.34031209465</v>
+        <v>14772.66220871456</v>
       </c>
       <c r="C8">
-        <v>15082.999999999991</v>
+        <v>15082.99999999999</v>
       </c>
       <c r="D8">
-        <v>-343.65968790534129</v>
+        <v>-310.3377912854357</v>
       </c>
       <c r="E8">
-        <v>-2.2784571232867569E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.02057533589375031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>274912.33324631897</v>
+        <v>276468.5966785591</v>
       </c>
       <c r="C9">
         <v>272384</v>
       </c>
       <c r="D9">
-        <v>2528.3332463190309</v>
+        <v>4084.596678559086</v>
       </c>
       <c r="E9">
-        <v>9.2822384806707844E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.01499572911242616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>57640.932990162022</v>
+        <v>60032.55335643634</v>
       </c>
       <c r="C10">
         <v>61138</v>
       </c>
       <c r="D10">
-        <v>-3497.0670098379778</v>
+        <v>-1105.446643563657</v>
       </c>
       <c r="E10">
-        <v>-5.7199565079622781E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.0180811711793591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>268524.37446174741</v>
+        <v>282819.7760758328</v>
       </c>
       <c r="C11">
-        <v>281307.00000000012</v>
+        <v>281307.0000000001</v>
       </c>
       <c r="D11">
-        <v>-12782.6255382527</v>
+        <v>1512.776075832662</v>
       </c>
       <c r="E11">
-        <v>-4.5440126048241589E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.005377669506385058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>63803.835217186846</v>
+        <v>66616.5964229033</v>
       </c>
       <c r="C12">
-        <v>74487.999999999971</v>
+        <v>74487.99999999997</v>
       </c>
       <c r="D12">
-        <v>-10684.164782813121</v>
+        <v>-7871.403577096673</v>
       </c>
       <c r="E12">
-        <v>-0.1434347114006703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1056734450796998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>13955.272156428069</v>
+        <v>14380.33518836905</v>
       </c>
       <c r="C13">
         <v>14809</v>
       </c>
       <c r="D13">
-        <v>-853.72784357193632</v>
+        <v>-428.664811630948</v>
       </c>
       <c r="E13">
-        <v>-5.7649256774389653E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.02894623618279073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>32193.96698934682</v>
+        <v>36274.86912373992</v>
       </c>
       <c r="C14">
-        <v>46745.000000000007</v>
+        <v>46745.00000000001</v>
       </c>
       <c r="D14">
-        <v>-14551.033010653189</v>
+        <v>-10470.13087626009</v>
       </c>
       <c r="E14">
-        <v>-0.3112853355578819</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.2239839742487985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>40185.729642329323</v>
+        <v>46338.20880230951</v>
       </c>
       <c r="C15">
-        <v>62024.000000000029</v>
+        <v>62024.00000000003</v>
       </c>
       <c r="D15">
-        <v>-21838.27035767071</v>
+        <v>-15685.79119769052</v>
       </c>
       <c r="E15">
-        <v>-0.35209387265688608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.2528987359359364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>29506.3488707621</v>
+        <v>33032.25203548361</v>
       </c>
       <c r="C16">
-        <v>41935.999999999993</v>
+        <v>41935.99999999999</v>
       </c>
       <c r="D16">
-        <v>-12429.651129237889</v>
+        <v>-8903.747964516384</v>
       </c>
       <c r="E16">
-        <v>-0.29639572513444029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.2123175306303983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>24412.009946492359</v>
+        <v>25021.90859741298</v>
       </c>
       <c r="C17">
-        <v>26152.000000000011</v>
+        <v>26152.00000000001</v>
       </c>
       <c r="D17">
-        <v>-1739.990053507649</v>
+        <v>-1130.091402587033</v>
       </c>
       <c r="E17">
-        <v>-6.653372795608932E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.04321242744673574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>83748.692576566202</v>
+        <v>83462.5359019029</v>
       </c>
       <c r="C18">
         <v>87031</v>
       </c>
       <c r="D18">
-        <v>-3282.3074234337978</v>
+        <v>-3568.464098097102</v>
       </c>
       <c r="E18">
-        <v>-3.7714233128813848E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.04100221872777633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>19594.201735282499</v>
+        <v>19213.36536718265</v>
       </c>
       <c r="C19">
-        <v>20675.999999999989</v>
+        <v>20675.99999999999</v>
       </c>
       <c r="D19">
-        <v>-1081.798264717494</v>
+        <v>-1462.634632817339</v>
       </c>
       <c r="E19">
-        <v>-5.2321448283879593E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.07074069611227216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>324085.12390019541</v>
+        <v>316865.4337182626</v>
       </c>
       <c r="C20">
-        <v>368244.99999999988</v>
+        <v>368244.9999999999</v>
       </c>
       <c r="D20">
-        <v>-44159.876099804533</v>
+        <v>-51379.56628173729</v>
       </c>
       <c r="E20">
-        <v>-0.1199198253874582</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1395254960195992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21">
-        <v>43019.874622347488</v>
+        <v>41899.12970104648</v>
       </c>
       <c r="C21">
-        <v>48832.999999999993</v>
+        <v>48832.99999999999</v>
       </c>
       <c r="D21">
-        <v>-5813.1253776525054</v>
+        <v>-6933.870298953516</v>
       </c>
       <c r="E21">
-        <v>-0.1190409226886021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1419914872924767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22">
-        <v>143480.9798352943</v>
+        <v>144333.3497521667</v>
       </c>
       <c r="C22">
         <v>149575</v>
       </c>
       <c r="D22">
-        <v>-6094.0201647057256</v>
+        <v>-5241.650247833284</v>
       </c>
       <c r="E22">
-        <v>-4.0742237437444262E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.03504362525711706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23">
-        <v>74361.899656127323</v>
+        <v>74766.32933747083</v>
       </c>
       <c r="C23">
         <v>76815</v>
       </c>
       <c r="D23">
-        <v>-2453.1003438726771</v>
+        <v>-2048.67066252917</v>
       </c>
       <c r="E23">
-        <v>-3.1935173388956281E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.02667019023015257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>42495.974726020097</v>
+        <v>41361.44900171147</v>
       </c>
       <c r="C24">
-        <v>43780.999999999971</v>
+        <v>43780.99999999997</v>
       </c>
       <c r="D24">
-        <v>-1285.0252739798741</v>
+        <v>-2419.550998288498</v>
       </c>
       <c r="E24">
-        <v>-2.9351208834423041E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.05526486371459079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>67251.778498350162</v>
+        <v>57952.30813404586</v>
       </c>
       <c r="C25">
-        <v>61365.999999999993</v>
+        <v>61365.99999999999</v>
       </c>
       <c r="D25">
-        <v>5885.778498350177</v>
+        <v>-3413.691865954126</v>
       </c>
       <c r="E25">
-        <v>9.5912695928530106E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.05562839138862118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>93943.393486665009</v>
+        <v>94929.59168945608</v>
       </c>
       <c r="C26">
         <v>102658</v>
       </c>
       <c r="D26">
-        <v>-8714.6065133349912</v>
+        <v>-7728.40831054392</v>
       </c>
       <c r="E26">
-        <v>-8.4889696987424171E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.07528305938693448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>78362.609723122005</v>
+        <v>79007.77717419957</v>
       </c>
       <c r="C27">
-        <v>81004.000000000029</v>
+        <v>81004.00000000003</v>
       </c>
       <c r="D27">
-        <v>-2641.390276878024</v>
+        <v>-1996.222825800462</v>
       </c>
       <c r="E27">
-        <v>-3.2608146225840989E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.02464350928102885</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>89733.038255375926</v>
+        <v>89835.98574856285</v>
       </c>
       <c r="C28">
-        <v>93499.999999999985</v>
+        <v>93499.99999999999</v>
       </c>
       <c r="D28">
-        <v>-3766.9617446240591</v>
+        <v>-3664.01425143714</v>
       </c>
       <c r="E28">
-        <v>-4.028836090507016E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.03918731819718867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B29">
-        <v>52073.763066895874</v>
+        <v>52325.40682025949</v>
       </c>
       <c r="C29">
-        <v>54302.999999999993</v>
+        <v>54302.99999999999</v>
       </c>
       <c r="D29">
-        <v>-2229.2369331041191</v>
+        <v>-1977.593179740499</v>
       </c>
       <c r="E29">
-        <v>-4.1051819109517329E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.03641775186896672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30">
-        <v>83642.877503528012</v>
+        <v>84519.37745961655</v>
       </c>
       <c r="C30">
-        <v>89228.999999999971</v>
+        <v>89228.99999999997</v>
       </c>
       <c r="D30">
-        <v>-5586.1224964719586</v>
+        <v>-4709.622540383425</v>
       </c>
       <c r="E30">
-        <v>-6.2604338236133553E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.05278129913350398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>71781.495497475684</v>
+        <v>71058.32341264168</v>
       </c>
       <c r="C31">
-        <v>77133.999999999985</v>
+        <v>77133.99999999999</v>
       </c>
       <c r="D31">
-        <v>-5352.5045025243016</v>
+        <v>-6075.676587358306</v>
       </c>
       <c r="E31">
-        <v>-6.939228488765399E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.0787678142888779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32">
-        <v>68516.700855080009</v>
+        <v>67811.97100541346</v>
       </c>
       <c r="C32">
-        <v>72648.999999999971</v>
+        <v>72648.99999999997</v>
       </c>
       <c r="D32">
-        <v>-4132.2991449199617</v>
+        <v>-4837.028994586508</v>
       </c>
       <c r="E32">
-        <v>-5.6880330698563818E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.06658080626831078</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>106986.0081385245</v>
+        <v>106694.5347509582</v>
       </c>
       <c r="C33">
         <v>108932</v>
       </c>
       <c r="D33">
-        <v>-1945.991861475457</v>
+        <v>-2237.465249041765</v>
       </c>
       <c r="E33">
-        <v>-1.7864281032896279E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.02054001807588004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34">
-        <v>113401.1506305056</v>
+        <v>110176.2418154634</v>
       </c>
       <c r="C34">
         <v>133478</v>
       </c>
       <c r="D34">
-        <v>-20076.849369494361</v>
+        <v>-23301.75818453664</v>
       </c>
       <c r="E34">
-        <v>-0.15041317197960979</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.174573773839409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35">
-        <v>65490.659195964719</v>
+        <v>64870.23658746333</v>
       </c>
       <c r="C35">
-        <v>73682.999999999985</v>
+        <v>73682.99999999999</v>
       </c>
       <c r="D35">
-        <v>-8192.340804035266</v>
+        <v>-8812.763412536653</v>
       </c>
       <c r="E35">
-        <v>-0.1111835946423906</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1196037540889575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36">
-        <v>43092.658960954897</v>
+        <v>42703.22079921756</v>
       </c>
       <c r="C36">
-        <v>45631.000000000007</v>
+        <v>45631.00000000001</v>
       </c>
       <c r="D36">
-        <v>-2538.3410390451031</v>
+        <v>-2927.779200782446</v>
       </c>
       <c r="E36">
-        <v>-5.5627556683945173E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.06416206527979763</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37">
-        <v>51747.958067405212</v>
+        <v>60601.74246950712</v>
       </c>
       <c r="C37">
-        <v>67590.000000000015</v>
+        <v>67590.00000000001</v>
       </c>
       <c r="D37">
-        <v>-15842.041932594801</v>
+        <v>-6988.257530492891</v>
       </c>
       <c r="E37">
-        <v>-0.2343844049799497</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1033918853453601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B38">
-        <v>61200.196950212259</v>
+        <v>60929.71386233107</v>
       </c>
       <c r="C38">
-        <v>64048.999999999993</v>
+        <v>64048.99999999999</v>
       </c>
       <c r="D38">
-        <v>-2848.8030497877262</v>
+        <v>-3119.286137668918</v>
       </c>
       <c r="E38">
-        <v>-4.4478493806112927E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.04870155877014346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <v>235908.7743506633</v>
+        <v>218466.8246076587</v>
       </c>
       <c r="C39">
         <v>253973</v>
       </c>
       <c r="D39">
-        <v>-18064.225649336731</v>
+        <v>-35506.17539234136</v>
       </c>
       <c r="E39">
-        <v>-7.1126559316686142E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1398029530396592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B40">
-        <v>62808.983635421348</v>
+        <v>65057.02716045123</v>
       </c>
       <c r="C40">
         <v>71501</v>
       </c>
       <c r="D40">
-        <v>-8692.0163645786524</v>
+        <v>-6443.972839548769</v>
       </c>
       <c r="E40">
-        <v>-0.1215649622323975</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.09012423378062921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41">
-        <v>588304.26550112187</v>
+        <v>588373.3237812086</v>
       </c>
       <c r="C41">
         <v>590496</v>
       </c>
       <c r="D41">
-        <v>-2191.734498878126</v>
+        <v>-2122.676218791399</v>
       </c>
       <c r="E41">
-        <v>-3.7116839045109981E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.003594734289125412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B42">
-        <v>133583.3032741319</v>
+        <v>137693.3647781257</v>
       </c>
       <c r="C42">
         <v>152921</v>
       </c>
       <c r="D42">
-        <v>-19337.696725868129</v>
+        <v>-15227.63522187428</v>
       </c>
       <c r="E42">
-        <v>-0.12645546867904431</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.09957844391466367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43">
-        <v>939026.29074725113</v>
+        <v>903410.6719148718</v>
       </c>
       <c r="C43">
         <v>982596</v>
       </c>
       <c r="D43">
-        <v>-43569.709252748871</v>
+        <v>-79185.32808512822</v>
       </c>
       <c r="E43">
-        <v>-4.4341427456196507E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.08058787954065376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44">
-        <v>287388.05997335061</v>
+        <v>281575.3982135211</v>
       </c>
       <c r="C44">
-        <v>335325.99999999988</v>
+        <v>335325.9999999999</v>
       </c>
       <c r="D44">
-        <v>-47937.94002664939</v>
+        <v>-53750.60178647889</v>
       </c>
       <c r="E44">
-        <v>-0.1429592099230283</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1602935703956117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B45">
-        <v>19483.752503273321</v>
+        <v>19055.44847474462</v>
       </c>
       <c r="C45">
         <v>20245</v>
       </c>
       <c r="D45">
-        <v>-761.24749672668258</v>
+        <v>-1189.551525255381</v>
       </c>
       <c r="E45">
-        <v>-3.7601753357702279E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.05875779329490647</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46">
-        <v>33219.485512625317</v>
+        <v>33571.01254218012</v>
       </c>
       <c r="C46">
         <v>38908</v>
       </c>
       <c r="D46">
-        <v>-5688.5144873746758</v>
+        <v>-5336.98745781988</v>
       </c>
       <c r="E46">
-        <v>-0.14620423787844861</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1371694113760635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B47">
-        <v>116113.79463048439</v>
+        <v>113201.3779065755</v>
       </c>
       <c r="C47">
         <v>119964.9999999999</v>
       </c>
       <c r="D47">
-        <v>-3851.2053695155191</v>
+        <v>-6763.622093424448</v>
       </c>
       <c r="E47">
-        <v>-3.2102741378864853E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.05637996160067062</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>21773.435722565449</v>
+        <v>21733.28376086519</v>
       </c>
       <c r="C48">
-        <v>25232.999999999989</v>
+        <v>25232.99999999999</v>
       </c>
       <c r="D48">
-        <v>-3459.5642774345429</v>
+        <v>-3499.716239134799</v>
       </c>
       <c r="E48">
-        <v>-0.13710475478280601</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1386960028191178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49">
-        <v>160906.0290401543</v>
+        <v>181303.4812873724</v>
       </c>
       <c r="C49">
-        <v>235419.99999999991</v>
+        <v>235419.9999999999</v>
       </c>
       <c r="D49">
-        <v>-74513.970959845668</v>
+        <v>-54116.51871262759</v>
       </c>
       <c r="E49">
-        <v>-0.31651504103239192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.2298722228894214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B50">
-        <v>18738.206126081841</v>
+        <v>16512.80355279316</v>
       </c>
       <c r="C50">
         <v>18970</v>
       </c>
       <c r="D50">
-        <v>-231.79387391815911</v>
+        <v>-2457.196447206839</v>
       </c>
       <c r="E50">
-        <v>-1.221897068624982E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1295306508806979</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B51">
-        <v>40542.168684142511</v>
+        <v>39880.24089750372</v>
       </c>
       <c r="C51">
-        <v>43150.999999999993</v>
+        <v>43150.99999999999</v>
       </c>
       <c r="D51">
-        <v>-2608.831315857482</v>
+        <v>-3270.759102496275</v>
       </c>
       <c r="E51">
-        <v>-6.0458189053729523E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.07579799083442505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B52">
-        <v>150870.0006736372</v>
+        <v>149780.6012944225</v>
       </c>
       <c r="C52">
-        <v>160653.00000000009</v>
+        <v>160653.0000000001</v>
       </c>
       <c r="D52">
-        <v>-9782.9993263628567</v>
+        <v>-10872.39870557757</v>
       </c>
       <c r="E52">
-        <v>-6.0895217184633053E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.06767628805921808</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53">
-        <v>129385.9028409618</v>
+        <v>128738.4410651963</v>
       </c>
       <c r="C53">
         <v>131790</v>
       </c>
       <c r="D53">
-        <v>-2404.0971590381519</v>
+        <v>-3051.558934803732</v>
       </c>
       <c r="E53">
-        <v>-1.8241878435679131E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.02315470775327211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B54">
-        <v>624760.78249553568</v>
+        <v>630884.9432419456</v>
       </c>
       <c r="C54">
         <v>641795</v>
       </c>
       <c r="D54">
-        <v>-17034.217504464319</v>
+        <v>-10910.05675805442</v>
       </c>
       <c r="E54">
-        <v>-2.6541524169655922E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.01699928599950828</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B55">
-        <v>497951.35311623511</v>
+        <v>571365.5245912054</v>
       </c>
       <c r="C55">
         <v>578082</v>
       </c>
       <c r="D55">
-        <v>-80130.646883764886</v>
+        <v>-6716.475408794591</v>
       </c>
       <c r="E55">
-        <v>-0.13861467211185419</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.0116185513626001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B56">
-        <v>197344.16316886409</v>
+        <v>194538.2649697331</v>
       </c>
       <c r="C56">
         <v>206751</v>
       </c>
       <c r="D56">
-        <v>-9406.8368311359372</v>
+        <v>-12212.73503026692</v>
       </c>
       <c r="E56">
-        <v>-4.5498386131800753E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.05906977489959866</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B57">
-        <v>63132.291463788199</v>
+        <v>62605.27385676699</v>
       </c>
       <c r="C57">
-        <v>64651.999999999993</v>
+        <v>64651.99999999999</v>
       </c>
       <c r="D57">
-        <v>-1519.7085362117939</v>
+        <v>-2046.726143233005</v>
       </c>
       <c r="E57">
-        <v>-2.350597872009828E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.0316575843474758</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B58">
-        <v>93656.131558691923</v>
+        <v>92482.8617653301</v>
       </c>
       <c r="C58">
-        <v>99585.999999999985</v>
+        <v>99585.99999999999</v>
       </c>
       <c r="D58">
-        <v>-5929.8684413080628</v>
+        <v>-7103.138234669881</v>
       </c>
       <c r="E58">
-        <v>-5.9545201547487242E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.07132667478028921</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B59">
-        <v>41201.914328356434</v>
+        <v>40593.46937965702</v>
       </c>
       <c r="C59">
         <v>43370</v>
       </c>
       <c r="D59">
-        <v>-2168.0856716435742</v>
+        <v>-2776.530620342979</v>
       </c>
       <c r="E59">
-        <v>-4.999044665998556E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.06401961310451877</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B60">
-        <v>220475.23645022191</v>
+        <v>217589.97066596</v>
       </c>
       <c r="C60">
-        <v>227886.99999999991</v>
+        <v>227886.9999999999</v>
       </c>
       <c r="D60">
-        <v>-7411.7635497780866</v>
+        <v>-10297.02933403995</v>
       </c>
       <c r="E60">
-        <v>-3.252385414603768E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.0451848035826526</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B61">
-        <v>39533.533113866353</v>
+        <v>39077.70792785036</v>
       </c>
       <c r="C61">
-        <v>41171.000000000007</v>
+        <v>41171.00000000001</v>
       </c>
       <c r="D61">
-        <v>-1637.466886133669</v>
+        <v>-2093.292072149656</v>
       </c>
       <c r="E61">
-        <v>-3.9772336988017493E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.05084384814917429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B62">
-        <v>775163.05998052622</v>
+        <v>772345.5377579182</v>
       </c>
       <c r="C62">
-        <v>776526.00000000012</v>
+        <v>776526.0000000001</v>
       </c>
       <c r="D62">
-        <v>-1362.9400194738989</v>
+        <v>-4180.462242081878</v>
       </c>
       <c r="E62">
-        <v>-1.7551762844694181E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.005383544455796557</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B63">
-        <v>326374.4066309359</v>
+        <v>326350.4942041824</v>
       </c>
       <c r="C63">
         <v>326443</v>
       </c>
       <c r="D63">
-        <v>-68.593369064095896</v>
+        <v>-92.50579581758939</v>
       </c>
       <c r="E63">
-        <v>-2.1012357153958239E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.0002833750327548435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B64">
-        <v>121445.7718931516</v>
+        <v>103972.9921324682</v>
       </c>
       <c r="C64">
         <v>122070</v>
       </c>
       <c r="D64">
-        <v>-624.22810684838623</v>
+        <v>-18097.00786753179</v>
       </c>
       <c r="E64">
-        <v>-5.1136897423477191E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1482510679735544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B65">
-        <v>190315.33903888951</v>
+        <v>190198.7593857933</v>
       </c>
       <c r="C65">
         <v>190139</v>
       </c>
       <c r="D65">
-        <v>176.339038889535</v>
+        <v>59.75938579329522</v>
       </c>
       <c r="E65">
-        <v>9.2742172247426899E-4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.0003142931528686657</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B66">
-        <v>263988.50978134328</v>
+        <v>251899.4491444021</v>
       </c>
       <c r="C66">
-        <v>244878.99999999991</v>
+        <v>244878.9999999999</v>
       </c>
       <c r="D66">
-        <v>19109.5097813434</v>
+        <v>7020.449144402257</v>
       </c>
       <c r="E66">
-        <v>7.8036539602593144E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.02866905346886528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B67">
-        <v>25431.11915621542</v>
+        <v>28038.43757670229</v>
       </c>
       <c r="C67">
-        <v>36907.000000000007</v>
+        <v>36907.00000000001</v>
       </c>
       <c r="D67">
-        <v>-11475.880843784589</v>
+        <v>-8868.562423297721</v>
       </c>
       <c r="E67">
-        <v>-0.3109404948596361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.240294860684903</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B68">
-        <v>123873.3168700159</v>
+        <v>123545.8428015783</v>
       </c>
       <c r="C68">
         <v>144605</v>
       </c>
       <c r="D68">
-        <v>-20731.683129984089</v>
+        <v>-21059.15719842173</v>
       </c>
       <c r="E68">
-        <v>-0.14336767836509171</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.1456322893290116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -4101,10 +4100,10 @@
         <v>68278</v>
       </c>
       <c r="D69">
-        <v>-10241.700000000001</v>
+        <v>-10241.7</v>
       </c>
       <c r="E69">
-        <v>-0.15000000000000011</v>
+        <v>-0.1500000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4113,23 +4112,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>79</v>
       </c>
@@ -4139,83 +4129,1347 @@
       <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>203650</v>
+      </c>
+      <c r="C2">
+        <v>-622.8456403349874</v>
+      </c>
+      <c r="D2">
+        <v>-0.3058412179400871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>77748</v>
+      </c>
+      <c r="C3">
+        <v>980.5188599664131</v>
+      </c>
+      <c r="D3">
+        <v>1.261149945936118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>25257</v>
+      </c>
+      <c r="C4">
+        <v>-1161.886185747443</v>
+      </c>
+      <c r="D4">
+        <v>-4.600254130527945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>7687</v>
+      </c>
+      <c r="C5">
+        <v>-179.0312844760361</v>
+      </c>
+      <c r="D5">
+        <v>-2.32901371765365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>22035</v>
+      </c>
+      <c r="C6">
+        <v>-1750.452191754378</v>
+      </c>
+      <c r="D6">
+        <v>-7.943962749055493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>21721</v>
+      </c>
+      <c r="C7">
+        <v>-176.4825659463891</v>
+      </c>
+      <c r="D7">
+        <v>-0.8124974262068466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>4132</v>
+      </c>
+      <c r="C8">
+        <v>-85.01728791297623</v>
+      </c>
+      <c r="D8">
+        <v>-2.05753358937503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>40462</v>
+      </c>
+      <c r="C9">
+        <v>606.7571913469872</v>
+      </c>
+      <c r="D9">
+        <v>1.499572911242616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>11432</v>
+      </c>
+      <c r="C10">
+        <v>-206.7039489224333</v>
+      </c>
+      <c r="D10">
+        <v>-1.80811711793591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>50036</v>
+      </c>
+      <c r="C11">
+        <v>269.0770714214829</v>
+      </c>
+      <c r="D11">
+        <v>0.537766950638506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>20387</v>
+      </c>
+      <c r="C12">
+        <v>-2154.364524839838</v>
+      </c>
+      <c r="D12">
+        <v>-10.56734450796997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>3855</v>
+      </c>
+      <c r="C13">
+        <v>-111.5877404846583</v>
+      </c>
+      <c r="D13">
+        <v>-2.894623618279073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>13365</v>
+      </c>
+      <c r="C14">
+        <v>-2993.545815835193</v>
+      </c>
+      <c r="D14">
+        <v>-22.39839742487985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>26067</v>
+      </c>
+      <c r="C15">
+        <v>-6592.311349642056</v>
+      </c>
+      <c r="D15">
+        <v>-25.28987359359365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>14187</v>
+      </c>
+      <c r="C16">
+        <v>-3012.148807053461</v>
+      </c>
+      <c r="D16">
+        <v>-21.23175306303983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>9613</v>
+      </c>
+      <c r="C17">
+        <v>-415.4010650454708</v>
+      </c>
+      <c r="D17">
+        <v>-4.321242744673575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>25667</v>
+      </c>
+      <c r="C18">
+        <v>-1052.403948085835</v>
+      </c>
+      <c r="D18">
+        <v>-4.100221872777632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>9279</v>
+      </c>
+      <c r="C19">
+        <v>-656.4029192257731</v>
+      </c>
+      <c r="D19">
+        <v>-7.074069611227213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>69800</v>
+      </c>
+      <c r="C20">
+        <v>-9738.879622168022</v>
+      </c>
+      <c r="D20">
+        <v>-13.95254960195992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>11207</v>
+      </c>
+      <c r="C21">
+        <v>-1591.298598086787</v>
+      </c>
+      <c r="D21">
+        <v>-14.19914872924767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>30842</v>
+      </c>
+      <c r="C22">
+        <v>-1080.815490180004</v>
+      </c>
+      <c r="D22">
+        <v>-3.504362525711706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>16061</v>
+      </c>
+      <c r="C23">
+        <v>-428.3499252864805</v>
+      </c>
+      <c r="D23">
+        <v>-2.667019023015258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>10437</v>
+      </c>
+      <c r="C24">
+        <v>-576.7993825891838</v>
+      </c>
+      <c r="D24">
+        <v>-5.526486371459076</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>26319</v>
+      </c>
+      <c r="C25">
+        <v>-1464.08363295712</v>
+      </c>
+      <c r="D25">
+        <v>-5.562839138862117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>28452</v>
+      </c>
+      <c r="C26">
+        <v>-2141.95360567706</v>
+      </c>
+      <c r="D26">
+        <v>-7.528305938693449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>25265</v>
+      </c>
+      <c r="C27">
+        <v>-622.6182619851942</v>
+      </c>
+      <c r="D27">
+        <v>-2.464350928102886</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>15606</v>
+      </c>
+      <c r="C28">
+        <v>-611.5572877853263</v>
+      </c>
+      <c r="D28">
+        <v>-3.918731819718866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>12990</v>
+      </c>
+      <c r="C29">
+        <v>-473.0665967778775</v>
+      </c>
+      <c r="D29">
+        <v>-3.641775186896671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>35240</v>
+      </c>
+      <c r="C30">
+        <v>-1860.01298146468</v>
+      </c>
+      <c r="D30">
+        <v>-5.278129913350396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>15539</v>
+      </c>
+      <c r="C31">
+        <v>-1223.973066234873</v>
+      </c>
+      <c r="D31">
+        <v>-7.876781428887789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>20758</v>
+      </c>
+      <c r="C32">
+        <v>-1382.084376517595</v>
+      </c>
+      <c r="D32">
+        <v>-6.658080626831076</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>33529</v>
+      </c>
+      <c r="C33">
+        <v>-688.6862660661819</v>
+      </c>
+      <c r="D33">
+        <v>-2.054001807588004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>13674</v>
+      </c>
+      <c r="C34">
+        <v>-2387.121783480079</v>
+      </c>
+      <c r="D34">
+        <v>-17.4573773839409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>20183</v>
+      </c>
+      <c r="C35">
+        <v>-2413.962568777429</v>
+      </c>
+      <c r="D35">
+        <v>-11.96037540889575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>11700</v>
+      </c>
+      <c r="C36">
+        <v>-750.6961637736325</v>
+      </c>
+      <c r="D36">
+        <v>-6.416206527979765</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>31390</v>
+      </c>
+      <c r="C37">
+        <v>-3245.471280990854</v>
+      </c>
+      <c r="D37">
+        <v>-10.33918853453601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>22896</v>
+      </c>
+      <c r="C38">
+        <v>-1115.070889601204</v>
+      </c>
+      <c r="D38">
+        <v>-4.870155877014345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>100009</v>
+      </c>
+      <c r="C39">
+        <v>-13981.55353054327</v>
+      </c>
+      <c r="D39">
+        <v>-13.98029530396592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>43711</v>
+      </c>
+      <c r="C40">
+        <v>-3939.420382785083</v>
+      </c>
+      <c r="D40">
+        <v>-9.012423378062921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>275187</v>
+      </c>
+      <c r="C41">
+        <v>-989.2241448215547</v>
+      </c>
+      <c r="D41">
+        <v>-0.3594734289125411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>88202</v>
+      </c>
+      <c r="C42">
+        <v>-8783.017910161165</v>
+      </c>
+      <c r="D42">
+        <v>-9.957844391466367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>611565</v>
+      </c>
+      <c r="C43">
+        <v>-49284.72655127991</v>
+      </c>
+      <c r="D43">
+        <v>-8.058787954065377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>147818</v>
+      </c>
+      <c r="C44">
+        <v>-23694.27498873853</v>
+      </c>
+      <c r="D44">
+        <v>-16.02935703956117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>9502</v>
+      </c>
+      <c r="C45">
+        <v>-558.3165518882013</v>
+      </c>
+      <c r="D45">
+        <v>-5.875779329490647</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>9927</v>
+      </c>
+      <c r="C46">
+        <v>-1361.680746730183</v>
+      </c>
+      <c r="D46">
+        <v>-13.71694113760635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>68732</v>
+      </c>
+      <c r="C47">
+        <v>-3875.107520737292</v>
+      </c>
+      <c r="D47">
+        <v>-5.63799616006706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>13324</v>
+      </c>
+      <c r="C48">
+        <v>-1847.985541561925</v>
+      </c>
+      <c r="D48">
+        <v>-13.86960028191178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>114505</v>
+      </c>
+      <c r="C49">
+        <v>-26321.5188819532</v>
+      </c>
+      <c r="D49">
+        <v>-22.98722228894214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>8143</v>
+      </c>
+      <c r="C50">
+        <v>-1054.768090121523</v>
+      </c>
+      <c r="D50">
+        <v>-12.95306508806979</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>17803</v>
+      </c>
+      <c r="C51">
+        <v>-1349.431630825269</v>
+      </c>
+      <c r="D51">
+        <v>-7.579799083442504</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>66412</v>
+      </c>
+      <c r="C52">
+        <v>-4494.517642588792</v>
+      </c>
+      <c r="D52">
+        <v>-6.767628805921809</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>86672</v>
+      </c>
+      <c r="C53">
+        <v>-2006.864830391601</v>
+      </c>
+      <c r="D53">
+        <v>-2.315470775327212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>425532</v>
+      </c>
+      <c r="C54">
+        <v>-7233.740169942756</v>
+      </c>
+      <c r="D54">
+        <v>-1.699928599950828</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>527006</v>
+      </c>
+      <c r="C55">
+        <v>-6123.046279398429</v>
+      </c>
+      <c r="D55">
+        <v>-1.16185513626001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>141257</v>
+      </c>
+      <c r="C56">
+        <v>-8344.019192992608</v>
+      </c>
+      <c r="D56">
+        <v>-5.906977489959866</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>39482</v>
+      </c>
+      <c r="C57">
+        <v>-1249.904745207039</v>
+      </c>
+      <c r="D57">
+        <v>-3.16575843474758</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>35175</v>
+      </c>
+      <c r="C58">
+        <v>-2508.915785396673</v>
+      </c>
+      <c r="D58">
+        <v>-7.132667478028922</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>27167</v>
+      </c>
+      <c r="C59">
+        <v>-1739.220829210461</v>
+      </c>
+      <c r="D59">
+        <v>-6.401961310451876</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>158212</v>
+      </c>
+      <c r="C60">
+        <v>-7148.778144418632</v>
+      </c>
+      <c r="D60">
+        <v>-4.51848035826526</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>33900</v>
+      </c>
+      <c r="C61">
+        <v>-1723.606452257009</v>
+      </c>
+      <c r="D61">
+        <v>-5.084384814917431</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>544758</v>
+      </c>
+      <c r="C62">
+        <v>-2932.728910650821</v>
+      </c>
+      <c r="D62">
+        <v>-0.5383544455796557</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>272681</v>
+      </c>
+      <c r="C63">
+        <v>-77.2709873066235</v>
+      </c>
+      <c r="D63">
+        <v>-0.02833750327548435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>84203</v>
+      </c>
+      <c r="C64">
+        <v>-12483.18467657721</v>
+      </c>
+      <c r="D64">
+        <v>-14.82510679735544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>127682</v>
+      </c>
+      <c r="C65">
+        <v>40.12957834457697</v>
+      </c>
+      <c r="D65">
+        <v>0.03142931528686657</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>141574</v>
+      </c>
+      <c r="C66">
+        <v>4058.792575801131</v>
+      </c>
+      <c r="D66">
+        <v>2.866905346886527</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>20405</v>
+      </c>
+      <c r="C67">
+        <v>-4903.216632275449</v>
+      </c>
+      <c r="D67">
+        <v>-24.02948606849032</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>72530</v>
+      </c>
+      <c r="C68">
+        <v>-10562.70994503322</v>
+      </c>
+      <c r="D68">
+        <v>-14.56322893290116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>68278</v>
+      </c>
+      <c r="C69">
+        <v>-10241.7</v>
+      </c>
+      <c r="D69">
+        <v>-15.00000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2">
+        <v>203650</v>
+      </c>
+      <c r="C2">
+        <v>-622.8456403349874</v>
+      </c>
+      <c r="D2">
+        <v>-0.3058412179400871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>77748</v>
+      </c>
+      <c r="C3">
+        <v>980.5188599664131</v>
+      </c>
+      <c r="D3">
+        <v>1.261149945936118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>25257</v>
+      </c>
+      <c r="C4">
+        <v>-1161.886185747443</v>
+      </c>
+      <c r="D4">
+        <v>-4.600254130527945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>55575</v>
+      </c>
+      <c r="C5">
+        <v>-2190.983330089779</v>
+      </c>
+      <c r="D5">
+        <v>-3.942390157606441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>676238</v>
+      </c>
+      <c r="C6">
+        <v>-50115.53763676583</v>
+      </c>
+      <c r="D6">
+        <v>-7.410931896279983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>143720</v>
+      </c>
+      <c r="C7">
+        <v>-17920.97391332836</v>
+      </c>
+      <c r="D7">
+        <v>-12.46936676407484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>275187</v>
+      </c>
+      <c r="C8">
+        <v>-989.2241448215547</v>
+      </c>
+      <c r="D8">
+        <v>-0.3594734289125411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9">
+        <v>699767</v>
+      </c>
+      <c r="C9">
+        <v>-58067.74446144108</v>
+      </c>
+      <c r="D9">
+        <v>-8.298154165806773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>235979</v>
+      </c>
+      <c r="C10">
+        <v>-29489.37980809421</v>
+      </c>
+      <c r="D10">
+        <v>-12.49661190533658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11">
+        <v>127829</v>
+      </c>
+      <c r="C11">
+        <v>-28169.50442351512</v>
+      </c>
+      <c r="D11">
+        <v>-22.03686520548164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>179030</v>
+      </c>
+      <c r="C12">
+        <v>-8905.582193927185</v>
+      </c>
+      <c r="D12">
+        <v>-4.974351892938158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13">
+        <v>425532</v>
+      </c>
+      <c r="C13">
+        <v>-7233.740169942756</v>
+      </c>
+      <c r="D13">
+        <v>-1.699928599950828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14">
+        <v>527006</v>
+      </c>
+      <c r="C14">
+        <v>-6123.046279398429</v>
+      </c>
+      <c r="D14">
+        <v>-1.16185513626001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15">
+        <v>435193</v>
+      </c>
+      <c r="C15">
+        <v>-22714.44514948242</v>
+      </c>
+      <c r="D15">
+        <v>-5.219395796688462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16">
+        <v>945121</v>
+      </c>
+      <c r="C16">
+        <v>-2969.870319612867</v>
+      </c>
+      <c r="D16">
+        <v>-0.3142317565277745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <v>225777</v>
+      </c>
+      <c r="C17">
+        <v>-8424.392100776075</v>
+      </c>
+      <c r="D17">
+        <v>-3.731288882736539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18">
+        <v>92935</v>
+      </c>
+      <c r="C18">
+        <v>-15465.92657730866</v>
+      </c>
+      <c r="D18">
+        <v>-16.64165984538512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19">
+        <v>68278</v>
+      </c>
+      <c r="C19">
+        <v>-10241.7</v>
+      </c>
+      <c r="D19">
+        <v>-15.00000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="2">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>5419822</v>
+      </c>
+      <c r="C2">
         <v>10542067</v>
       </c>
-      <c r="C2" s="2">
-        <v>5419822</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="D2">
+        <v>391423.7466786085</v>
+      </c>
+      <c r="E2">
         <v>2027742</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2">
         <v>528780</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2">
         <v>2802436</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2">
         <v>100362394</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="2">
-        <v>-627885.66185113683</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-304235.97552550549</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-143401.90739797629</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-32411.42946592499</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-124524.5970044658</v>
-      </c>
-      <c r="G3" s="3">
-        <v>-6968039.9271757295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="B3">
+        <v>-269826.2634746203</v>
+      </c>
+      <c r="C3">
+        <v>-599071.6678397524</v>
+      </c>
+      <c r="D3">
+        <v>-28517.16773916771</v>
+      </c>
+      <c r="E3">
+        <v>-89408.44505120972</v>
+      </c>
+      <c r="F3">
+        <v>-30811.05689791233</v>
+      </c>
+      <c r="G3">
+        <v>-145083.2158593377</v>
+      </c>
+      <c r="H3">
+        <v>-7099586.026974804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="4">
-        <v>-5.9560014354977717</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-5.6133942318678649</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-7.0719996625791817</v>
-      </c>
-      <c r="E4" s="4">
-        <v>-6.1294734040479959</v>
-      </c>
-      <c r="F4" s="4">
-        <v>-4.443441241993245</v>
-      </c>
-      <c r="G4" s="4">
-        <v>-6.94287934898776</v>
+        <v>81</v>
+      </c>
+      <c r="B4">
+        <v>-4.978507845361348</v>
+      </c>
+      <c r="C4">
+        <v>-5.68267748478313</v>
+      </c>
+      <c r="D4">
+        <v>-7.285497617645227</v>
+      </c>
+      <c r="E4">
+        <v>-4.409261387849624</v>
+      </c>
+      <c r="F4">
+        <v>-5.826819641043975</v>
+      </c>
+      <c r="G4">
+        <v>-5.17703939927041</v>
+      </c>
+      <c r="H4">
+        <v>-7.073950454963045</v>
       </c>
     </row>
   </sheetData>
